--- a/staticfiles/飛行日誌1.xlsx
+++ b/staticfiles/飛行日誌1.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10811"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10910"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yoshi/Desktop/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{07714FD2-183E-E245-8FE9-940DFD67C3D3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EAA38F48-D248-CC40-8501-642BDFA026D2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="600" windowWidth="26240" windowHeight="16360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="26240" windowHeight="16360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="（様式２）日常点検記録" sheetId="2" r:id="rId1"/>
@@ -528,7 +528,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -551,34 +551,59 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -589,7 +614,28 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -899,26 +945,26 @@
   <dimension ref="A1:BG215"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+      <selection activeCell="B23" sqref="B23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="13"/>
   <cols>
-    <col min="1" max="1" width="35.59765625" style="6" customWidth="1"/>
-    <col min="2" max="2" width="60" style="6" customWidth="1"/>
-    <col min="3" max="3" width="14" style="6" customWidth="1"/>
-    <col min="4" max="4" width="40" style="6" customWidth="1"/>
-    <col min="5" max="55" width="10" style="6" customWidth="1"/>
-    <col min="56" max="16384" width="9" style="6"/>
+    <col min="1" max="1" width="35.59765625" style="3" customWidth="1"/>
+    <col min="2" max="2" width="60" style="3" customWidth="1"/>
+    <col min="3" max="3" width="17" style="3" customWidth="1"/>
+    <col min="4" max="4" width="44.3984375" style="3" customWidth="1"/>
+    <col min="5" max="55" width="10" style="3" customWidth="1"/>
+    <col min="56" max="16384" width="9" style="3"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:59" ht="24" customHeight="1">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="B1" s="3"/>
-      <c r="C1" s="3"/>
-      <c r="D1" s="3"/>
+      <c r="B1" s="10"/>
+      <c r="C1" s="10"/>
+      <c r="D1" s="10"/>
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
@@ -978,10 +1024,10 @@
     <row r="2" spans="1:59" ht="8" customHeight="1">
       <c r="A2" s="2"/>
       <c r="B2" s="2"/>
-      <c r="C2" s="4" t="s">
+      <c r="C2" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="D2" s="4"/>
+      <c r="D2" s="7"/>
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
@@ -1039,12 +1085,12 @@
       <c r="BG2" s="1"/>
     </row>
     <row r="3" spans="1:59" ht="40.5" customHeight="1">
-      <c r="A3" s="7" t="s">
+      <c r="A3" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="7"/>
-      <c r="C3" s="4"/>
-      <c r="D3" s="4"/>
+      <c r="B3" s="4"/>
+      <c r="C3" s="7"/>
+      <c r="D3" s="7"/>
       <c r="E3" s="1"/>
       <c r="F3" s="1"/>
       <c r="G3" s="1"/>
@@ -1102,10 +1148,10 @@
       <c r="BG3" s="1"/>
     </row>
     <row r="4" spans="1:59" ht="19" customHeight="1">
-      <c r="A4" s="5"/>
-      <c r="B4" s="5"/>
-      <c r="C4" s="5"/>
-      <c r="D4" s="5"/>
+      <c r="A4" s="8"/>
+      <c r="B4" s="8"/>
+      <c r="C4" s="8"/>
+      <c r="D4" s="8"/>
       <c r="E4" s="1"/>
       <c r="F4" s="1"/>
       <c r="G4" s="1"/>
@@ -1163,14 +1209,14 @@
       <c r="BG4" s="1"/>
     </row>
     <row r="5" spans="1:59" ht="36" customHeight="1">
-      <c r="A5" s="10" t="s">
+      <c r="A5" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="B5" s="10"/>
-      <c r="C5" s="11" t="s">
+      <c r="B5" s="11"/>
+      <c r="C5" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="D5" s="11" t="s">
+      <c r="D5" s="6" t="s">
         <v>3</v>
       </c>
       <c r="E5" s="1"/>
@@ -1230,14 +1276,14 @@
       <c r="BG5" s="1"/>
     </row>
     <row r="6" spans="1:59" ht="19" customHeight="1">
-      <c r="A6" s="7" t="s">
+      <c r="A6" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="B6" s="9" t="s">
+      <c r="B6" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="C6" s="7"/>
-      <c r="D6" s="7"/>
+      <c r="C6" s="4"/>
+      <c r="D6" s="4"/>
       <c r="E6" s="1"/>
       <c r="F6" s="1"/>
       <c r="G6" s="1"/>
@@ -1295,14 +1341,14 @@
       <c r="BG6" s="1"/>
     </row>
     <row r="7" spans="1:59" ht="18" customHeight="1">
-      <c r="A7" s="7" t="s">
+      <c r="A7" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="9" t="s">
+      <c r="B7" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="C7" s="7"/>
-      <c r="D7" s="7"/>
+      <c r="C7" s="4"/>
+      <c r="D7" s="4"/>
       <c r="E7" s="1"/>
       <c r="F7" s="1"/>
       <c r="G7" s="1"/>
@@ -1360,14 +1406,14 @@
       <c r="BG7" s="1"/>
     </row>
     <row r="8" spans="1:59" ht="19" customHeight="1">
-      <c r="A8" s="7" t="s">
+      <c r="A8" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="B8" s="9" t="s">
+      <c r="B8" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="C8" s="7"/>
-      <c r="D8" s="7"/>
+      <c r="C8" s="4"/>
+      <c r="D8" s="4"/>
       <c r="E8" s="1"/>
       <c r="F8" s="1"/>
       <c r="G8" s="1"/>
@@ -1425,14 +1471,14 @@
       <c r="BG8" s="1"/>
     </row>
     <row r="9" spans="1:59" ht="18" customHeight="1">
-      <c r="A9" s="7" t="s">
+      <c r="A9" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="B9" s="9" t="s">
+      <c r="B9" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="C9" s="7"/>
-      <c r="D9" s="7"/>
+      <c r="C9" s="4"/>
+      <c r="D9" s="4"/>
       <c r="E9" s="1"/>
       <c r="F9" s="1"/>
       <c r="G9" s="1"/>
@@ -1490,14 +1536,14 @@
       <c r="BG9" s="1"/>
     </row>
     <row r="10" spans="1:59" ht="19" customHeight="1">
-      <c r="A10" s="7" t="s">
+      <c r="A10" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="B10" s="9" t="s">
+      <c r="B10" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="C10" s="7"/>
-      <c r="D10" s="7"/>
+      <c r="C10" s="4"/>
+      <c r="D10" s="4"/>
       <c r="E10" s="1"/>
       <c r="F10" s="1"/>
       <c r="G10" s="1"/>
@@ -1555,14 +1601,14 @@
       <c r="BG10" s="1"/>
     </row>
     <row r="11" spans="1:59" ht="18" customHeight="1">
-      <c r="A11" s="7" t="s">
+      <c r="A11" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="B11" s="9" t="s">
+      <c r="B11" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="C11" s="7"/>
-      <c r="D11" s="7"/>
+      <c r="C11" s="4"/>
+      <c r="D11" s="4"/>
       <c r="E11" s="1"/>
       <c r="F11" s="1"/>
       <c r="G11" s="1"/>
@@ -1620,14 +1666,14 @@
       <c r="BG11" s="1"/>
     </row>
     <row r="12" spans="1:59" ht="37" customHeight="1">
-      <c r="A12" s="7" t="s">
+      <c r="A12" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="B12" s="9" t="s">
+      <c r="B12" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="C12" s="7"/>
-      <c r="D12" s="7"/>
+      <c r="C12" s="4"/>
+      <c r="D12" s="4"/>
       <c r="E12" s="1"/>
       <c r="F12" s="1"/>
       <c r="G12" s="1"/>
@@ -1685,14 +1731,14 @@
       <c r="BG12" s="1"/>
     </row>
     <row r="13" spans="1:59" ht="18" customHeight="1">
-      <c r="A13" s="7" t="s">
+      <c r="A13" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="B13" s="9" t="s">
+      <c r="B13" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="C13" s="7"/>
-      <c r="D13" s="7"/>
+      <c r="C13" s="4"/>
+      <c r="D13" s="4"/>
       <c r="E13" s="1"/>
       <c r="F13" s="1"/>
       <c r="G13" s="1"/>
@@ -1750,14 +1796,14 @@
       <c r="BG13" s="1"/>
     </row>
     <row r="14" spans="1:59" ht="19" customHeight="1">
-      <c r="A14" s="7" t="s">
+      <c r="A14" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="B14" s="9" t="s">
+      <c r="B14" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="C14" s="7"/>
-      <c r="D14" s="7"/>
+      <c r="C14" s="4"/>
+      <c r="D14" s="4"/>
       <c r="E14" s="1"/>
       <c r="F14" s="1"/>
       <c r="G14" s="1"/>
@@ -1815,10 +1861,10 @@
       <c r="BG14" s="1"/>
     </row>
     <row r="15" spans="1:59" ht="18" customHeight="1">
-      <c r="A15" s="7"/>
-      <c r="B15" s="7"/>
-      <c r="C15" s="7"/>
-      <c r="D15" s="7"/>
+      <c r="A15" s="4"/>
+      <c r="B15" s="4"/>
+      <c r="C15" s="4"/>
+      <c r="D15" s="4"/>
       <c r="E15" s="1"/>
       <c r="F15" s="1"/>
       <c r="G15" s="1"/>
@@ -1876,10 +1922,10 @@
       <c r="BG15" s="1"/>
     </row>
     <row r="16" spans="1:59" ht="19" customHeight="1">
-      <c r="A16" s="7"/>
-      <c r="B16" s="7"/>
-      <c r="C16" s="7"/>
-      <c r="D16" s="7"/>
+      <c r="A16" s="4"/>
+      <c r="B16" s="4"/>
+      <c r="C16" s="4"/>
+      <c r="D16" s="4"/>
       <c r="E16" s="1"/>
       <c r="F16" s="1"/>
       <c r="G16" s="1"/>
@@ -1937,10 +1983,10 @@
       <c r="BG16" s="1"/>
     </row>
     <row r="17" spans="1:59" ht="18" customHeight="1">
-      <c r="A17" s="7"/>
-      <c r="B17" s="7"/>
-      <c r="C17" s="7"/>
-      <c r="D17" s="7"/>
+      <c r="A17" s="4"/>
+      <c r="B17" s="4"/>
+      <c r="C17" s="4"/>
+      <c r="D17" s="4"/>
       <c r="E17" s="1"/>
       <c r="F17" s="1"/>
       <c r="G17" s="1"/>
@@ -1998,10 +2044,10 @@
       <c r="BG17" s="1"/>
     </row>
     <row r="18" spans="1:59" ht="19" customHeight="1">
-      <c r="A18" s="7"/>
-      <c r="B18" s="7"/>
-      <c r="C18" s="7"/>
-      <c r="D18" s="7"/>
+      <c r="A18" s="4"/>
+      <c r="B18" s="4"/>
+      <c r="C18" s="4"/>
+      <c r="D18" s="4"/>
       <c r="E18" s="1"/>
       <c r="F18" s="1"/>
       <c r="G18" s="1"/>
@@ -2059,12 +2105,12 @@
       <c r="BG18" s="1"/>
     </row>
     <row r="19" spans="1:59" ht="42" customHeight="1">
-      <c r="A19" s="7" t="s">
+      <c r="A19" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="B19" s="7"/>
-      <c r="C19" s="7"/>
-      <c r="D19" s="7"/>
+      <c r="B19" s="12"/>
+      <c r="C19" s="13"/>
+      <c r="D19" s="14"/>
       <c r="E19" s="1"/>
       <c r="F19" s="1"/>
       <c r="G19" s="1"/>
@@ -2122,16 +2168,16 @@
       <c r="BG19" s="1"/>
     </row>
     <row r="20" spans="1:59" ht="19" customHeight="1">
-      <c r="A20" s="7" t="s">
+      <c r="A20" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="B20" s="7" t="s">
+      <c r="B20" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="C20" s="8" t="s">
+      <c r="C20" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="D20" s="8"/>
+      <c r="D20" s="9"/>
       <c r="E20" s="1"/>
       <c r="F20" s="1"/>
       <c r="G20" s="1"/>
@@ -2189,10 +2235,10 @@
       <c r="BG20" s="1"/>
     </row>
     <row r="21" spans="1:59" ht="19" customHeight="1">
-      <c r="A21" s="7"/>
-      <c r="B21" s="7"/>
-      <c r="C21" s="10"/>
-      <c r="D21" s="10"/>
+      <c r="A21" s="4"/>
+      <c r="B21" s="4"/>
+      <c r="C21" s="11"/>
+      <c r="D21" s="11"/>
       <c r="E21" s="1"/>
       <c r="F21" s="1"/>
       <c r="G21" s="1"/>
@@ -13308,13 +13354,14 @@
       <c r="BG215" s="1"/>
     </row>
   </sheetData>
-  <mergeCells count="6">
+  <mergeCells count="7">
     <mergeCell ref="C2:D3"/>
     <mergeCell ref="A4:D4"/>
     <mergeCell ref="C20:D20"/>
     <mergeCell ref="A1:D1"/>
     <mergeCell ref="C21:D21"/>
     <mergeCell ref="A5:B5"/>
+    <mergeCell ref="B19:D19"/>
   </mergeCells>
   <phoneticPr fontId="7"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
